--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -109,12 +109,12 @@
     <t>community</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -136,13 +136,13 @@
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>relief</t>
@@ -1290,25 +1290,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.7268722466960352</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1316,25 +1316,25 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="M21">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1524,13 +1524,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.6116207951070336</v>
+        <v>0.6113074204946997</v>
       </c>
       <c r="L29">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M29">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="N29">
         <v>0.9399999999999999</v>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1550,13 +1550,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.6113074204946997</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="L30">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>0.9399999999999999</v>
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1576,25 +1576,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5930232558139535</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="10:17">
